--- a/Design/QA_ClothesStore_SIQ.xlsx
+++ b/Design/QA_ClothesStore_SIQ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>CRS-ID</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>Can Supplier signup to the store?</t>
+  </si>
+  <si>
+    <t>Constraints_12</t>
+  </si>
+  <si>
+    <t>Can Admin signout to the store?</t>
+  </si>
+  <si>
+    <t>Constraints_13</t>
+  </si>
+  <si>
+    <t>Constraints_14</t>
   </si>
 </sst>
 </file>
@@ -2102,89 +2114,110 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
     </row>
-    <row r="40">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+    <row r="40" ht="31.5" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="15">
+        <v>45408.0</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+    </row>
+    <row r="41" ht="31.5" customHeight="1">
+      <c r="B41" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="15">
+        <v>45408.0</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+    </row>
+    <row r="42" ht="31.5" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="15">
+        <v>45408.0</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="22"/>
@@ -29350,13 +29383,13 @@
   <mergeCells count="6">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A10:A28"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A29:Z29"/>
-    <mergeCell ref="A10:A28"/>
     <mergeCell ref="A30:A39"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D8 D10:D28 D30:D39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D8 D10:D28 D30:D42">
       <formula1>"Yes,NO,Comments"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Design/QA_ClothesStore_SIQ.xlsx
+++ b/Design/QA_ClothesStore_SIQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merna Hesham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merna Files\ITI_Sw testing and QA\QA\Project\Phases\QA_Workshop_ClothesStore\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7390771-7BF9-47E4-B96E-19AE44057755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E2DC9-E624-4296-AE20-B40D5C31A7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>CRS-ID</t>
   </si>
@@ -355,18 +355,6 @@
   <si>
     <t>Can Supplier signup to the store?</t>
   </si>
-  <si>
-    <t>Constraints_12</t>
-  </si>
-  <si>
-    <t>Constraints_13</t>
-  </si>
-  <si>
-    <t>Constraints_14</t>
-  </si>
-  <si>
-    <t>Can Supplier signout to the store?</t>
-  </si>
 </sst>
 </file>
 
@@ -412,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,12 +419,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,21 +458,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,6 +470,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -517,14 +491,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +712,8 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -801,7 +767,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -841,7 +807,7 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -879,7 +845,7 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -917,7 +883,7 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -955,7 +921,7 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -993,7 +959,7 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +997,7 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1069,753 +1035,753 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-    </row>
-    <row r="10" spans="1:26" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="8">
         <v>45367</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-    </row>
-    <row r="11" spans="1:26" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="19" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="8">
         <v>45367</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-    </row>
-    <row r="12" spans="1:26" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="19" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="8">
         <v>45367</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-    </row>
-    <row r="13" spans="1:26" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="19" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="8">
         <v>45367</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-    </row>
-    <row r="14" spans="1:26" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="19" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="8">
         <v>45367</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-    </row>
-    <row r="15" spans="1:26" s="23" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="8">
         <v>45367</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-    </row>
-    <row r="16" spans="1:26" s="23" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="19" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="8">
         <v>45367</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-    </row>
-    <row r="17" spans="1:26" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="19" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="8">
         <v>45367</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-    </row>
-    <row r="18" spans="1:26" s="23" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="19" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="8">
         <v>45367</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-    </row>
-    <row r="19" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="19" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="8">
         <v>45367</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-    </row>
-    <row r="20" spans="1:26" s="23" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="19" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="8">
         <v>45368</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-    </row>
-    <row r="21" spans="1:26" s="23" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="19" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="8">
         <v>45369</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-    </row>
-    <row r="22" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="19" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="8">
         <v>45406</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-    </row>
-    <row r="23" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="19" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="8">
         <v>45406</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-    </row>
-    <row r="24" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="19" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="8">
         <v>45406</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-    </row>
-    <row r="25" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="19" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="8">
         <v>45406</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-    </row>
-    <row r="26" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="19" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="8">
         <v>45406</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-    </row>
-    <row r="27" spans="1:26" s="23" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="19" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="8">
         <v>45406</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
     </row>
     <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1855,7 +1821,7 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
@@ -1893,7 +1859,7 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
@@ -1931,7 +1897,7 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
@@ -1969,7 +1935,7 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
@@ -2007,7 +1973,7 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -2044,265 +2010,241 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="19" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="8">
         <v>45407</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-    </row>
-    <row r="36" spans="1:26" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19" t="s">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="19" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="8">
         <v>45407</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-    </row>
-    <row r="37" spans="1:26" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19" t="s">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="19" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="8">
         <v>45407</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-    </row>
-    <row r="38" spans="1:26" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19" t="s">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="19" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="8">
         <v>45407</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-    </row>
-    <row r="39" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="12">
-        <v>45409</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-    </row>
-    <row r="40" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="12">
-        <v>45409</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-    </row>
-    <row r="41" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="12">
-        <v>45409</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+    </row>
+    <row r="41" spans="1:26" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
